--- a/Final Project Baseline Values.xlsx
+++ b/Final Project Baseline Values.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>Control</t>
   </si>
   <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>total cookies</t>
+  </si>
+  <si>
     <t>standard deviation</t>
   </si>
   <si>
@@ -28,30 +37,24 @@
     <t>Net</t>
   </si>
   <si>
+    <t>Unique cookies to view page per day:</t>
+  </si>
+  <si>
     <t>P_Pool</t>
   </si>
   <si>
-    <t>Unique cookies to view page per day:</t>
-  </si>
-  <si>
     <t>SE_pool</t>
   </si>
   <si>
     <t>Pexp</t>
   </si>
   <si>
-    <t>Experiment</t>
-  </si>
-  <si>
     <t>Pcont</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>total cookies</t>
-  </si>
-  <si>
     <t>Margin of error</t>
   </si>
   <si>
@@ -85,13 +88,16 @@
     <t>Click-through-probability on "Start free trial":</t>
   </si>
   <si>
+    <t>Probability of enrolling, given click:</t>
+  </si>
+  <si>
     <t>middle point</t>
   </si>
   <si>
     <t>clicks</t>
   </si>
   <si>
-    <t>Probability of enrolling, given click:</t>
+    <t>Probability of payment, given enroll:</t>
   </si>
   <si>
     <t>z score</t>
@@ -106,9 +112,6 @@
     <t>Observed</t>
   </si>
   <si>
-    <t>Probability of payment, given enroll:</t>
-  </si>
-  <si>
     <t>No using this anymore</t>
   </si>
   <si>
@@ -127,6 +130,12 @@
     <t>Enrollments per day for 5000 pageviews</t>
   </si>
   <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>Click through prob</t>
+  </si>
+  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -142,27 +151,27 @@
     <t>length of experiment</t>
   </si>
   <si>
+    <t>d min</t>
+  </si>
+  <si>
+    <t>Clicks</t>
+  </si>
+  <si>
+    <t>Enrollments</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
     <t>CONTROL</t>
   </si>
   <si>
-    <t>d min</t>
-  </si>
-  <si>
     <t>EXPERIMENT</t>
   </si>
   <si>
-    <t>Clicks</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Enrollments</t>
-  </si>
-  <si>
-    <t>Payments</t>
-  </si>
-  <si>
     <t>Gross Conersion</t>
   </si>
   <si>
@@ -176,9 +185,6 @@
   </si>
   <si>
     <t>Sat, Oct 11</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Sun, Oct 12</t>
@@ -376,14 +382,14 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <f>40000</f>
@@ -396,7 +402,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2">
         <v>3200.0</v>
@@ -404,7 +410,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
         <v>660.0</v>
@@ -412,7 +418,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B6" si="1">B3/B2</f>
@@ -421,7 +427,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
@@ -438,7 +444,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>0.53</v>
@@ -451,12 +457,12 @@
         <v>39115.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <f>B6*B7</f>
@@ -469,16 +475,14 @@
       <c r="D8" s="2">
         <v>27411.0</v>
       </c>
-      <c r="E8" s="2">
-        <v>27563.0</v>
-      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="10">
       <c r="C10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
         <v>5000.0</v>
@@ -487,7 +491,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <f>B5*B11</f>
@@ -497,7 +501,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <f>(B11*B4)/B2</f>
@@ -506,7 +510,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2">
         <v>0.05</v>
@@ -514,18 +518,18 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>0.2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2">
         <v>0.01</v>
@@ -536,7 +540,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
         <v>2.0</v>
@@ -544,7 +548,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <f>E2/(B2)</f>
@@ -571,12 +575,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>345543.0</v>
@@ -584,10 +591,14 @@
       <c r="C2" s="2">
         <v>344660.0</v>
       </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D3" si="1">B2+C2</f>
+        <v>690203</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>28378.0</v>
@@ -595,110 +606,201 @@
       <c r="C3" s="2">
         <v>28325.0</v>
       </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>56703</v>
+      </c>
     </row>
     <row r="4">
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F6" si="1">SQRT((0.5*0.5)/(B2+C2))</f>
-        <v>0.0006018407403</v>
-      </c>
-      <c r="G5">
-        <f>F5*B7</f>
-        <v>0.001179607851</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.5</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.00209974708</v>
+        <f t="shared" ref="F6:F7" si="2">SQRT((0.5*0.5)/(B2+C2))</f>
+        <v>0.0006018407403</v>
       </c>
       <c r="G6">
-        <f>F6*B7</f>
-        <v>0.004115504276</v>
+        <f>F6*B8</f>
+        <v>0.001179607851</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2">
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.00209974708</v>
+      </c>
+      <c r="G7">
+        <f>F7*B8</f>
+        <v>0.004115504276</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="F10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F10" si="2">0.5-G5</f>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F12" si="3">0.5-G6</f>
         <v>0.4988203921</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G10" si="3">0.5+G5</f>
+      <c r="G11">
+        <f t="shared" ref="G11:G12" si="4">0.5+G6</f>
         <v>0.5011796079</v>
       </c>
-      <c r="H9">
-        <f t="shared" ref="H9:H10" si="4">B2/(B2+C2)</f>
+      <c r="H11">
+        <f t="shared" ref="H11:H12" si="5">B2/(B2+C2)</f>
         <v>0.5006396669</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
         <v>0.4958844957</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
+      <c r="G12">
+        <f t="shared" si="4"/>
         <v>0.5041155043</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
+      <c r="H12">
+        <f t="shared" si="5"/>
         <v>0.5004673474</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>33</v>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <f>D3/D2</f>
+        <v>0.0821540909</v>
+      </c>
+      <c r="C16">
+        <f>SQRT(B16*(1-B16)*((1/B2) + (1/C2)))</f>
+        <v>0.0006610608156</v>
+      </c>
+      <c r="D16">
+        <f>C3/C2</f>
+        <v>0.08218244067</v>
+      </c>
+      <c r="E16">
+        <f>B3/B2</f>
+        <v>0.08212581357</v>
+      </c>
+      <c r="F16">
+        <f>D16-E16</f>
+        <v>0.00005662709159</v>
+      </c>
+      <c r="G16">
+        <f>B8*C16</f>
+        <v>0.001295679199</v>
+      </c>
+      <c r="H16">
+        <f>F16-G16</f>
+        <v>-0.001239052107</v>
+      </c>
+      <c r="I16">
+        <f>F16+G16</f>
+        <v>0.00135230629</v>
+      </c>
+      <c r="J16">
+        <f>D16-E16</f>
+        <v>0.00005662709159</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -720,14 +822,14 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -735,33 +837,33 @@
     <row r="7">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <f>C18/B18</f>
@@ -798,7 +900,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <f>D18/B18</f>
@@ -835,7 +937,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>0.95</v>
@@ -843,7 +945,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
         <v>1.96</v>
@@ -851,26 +953,26 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
         <v>0.01</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2">
         <v>17260.0</v>
@@ -900,7 +1002,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18:D18" si="2">B16+B17</f>
@@ -929,80 +1031,80 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>53</v>
+      <c r="A3" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B3" s="9">
         <v>687.0</v>
@@ -1048,8 +1150,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>55</v>
+      <c r="A4" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B4" s="9">
         <v>779.0</v>
@@ -1095,8 +1197,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>56</v>
+      <c r="A5" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="9">
         <v>909.0</v>
@@ -1142,8 +1244,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>57</v>
+      <c r="A6" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="9">
         <v>836.0</v>
@@ -1189,8 +1291,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>58</v>
+      <c r="A7" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B7" s="9">
         <v>837.0</v>
@@ -1236,8 +1338,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>59</v>
+      <c r="A8" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B8" s="9">
         <v>823.0</v>
@@ -1283,8 +1385,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>60</v>
+      <c r="A9" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="9">
         <v>748.0</v>
@@ -1330,8 +1432,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>61</v>
+      <c r="A10" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B10" s="9">
         <v>632.0</v>
@@ -1377,8 +1479,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>62</v>
+      <c r="A11" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B11" s="9">
         <v>691.0</v>
@@ -1424,8 +1526,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>63</v>
+      <c r="A12" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B12" s="9">
         <v>861.0</v>
@@ -1471,8 +1573,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>64</v>
+      <c r="A13" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="9">
         <v>867.0</v>
@@ -1518,8 +1620,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>65</v>
+      <c r="A14" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B14" s="9">
         <v>838.0</v>
@@ -1565,8 +1667,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>66</v>
+      <c r="A15" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B15" s="9">
         <v>665.0</v>
@@ -1612,8 +1714,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>67</v>
+      <c r="A16" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="9">
         <v>673.0</v>
@@ -1659,8 +1761,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>68</v>
+      <c r="A17" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B17" s="9">
         <v>691.0</v>
@@ -1706,8 +1808,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>69</v>
+      <c r="A18" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B18" s="9">
         <v>708.0</v>
@@ -1753,8 +1855,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>70</v>
+      <c r="A19" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B19" s="9">
         <v>759.0</v>
@@ -1800,8 +1902,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>71</v>
+      <c r="A20" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B20" s="9">
         <v>736.0</v>
@@ -1847,8 +1949,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>72</v>
+      <c r="A21" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B21" s="9">
         <v>739.0</v>
@@ -1894,8 +1996,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>73</v>
+      <c r="A22" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B22" s="9">
         <v>734.0</v>
@@ -1941,8 +2043,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>74</v>
+      <c r="A23" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B23" s="9">
         <v>706.0</v>
@@ -1988,8 +2090,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>75</v>
+      <c r="A24" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B24" s="9">
         <v>681.0</v>
@@ -2035,8 +2137,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>76</v>
+      <c r="A25" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B25" s="9">
         <v>693.0</v>
@@ -2083,22 +2185,22 @@
     </row>
     <row r="27">
       <c r="H27" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28">
         <f>COUNT(B3:B25)</f>
         <v>23</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <f>COUNTIF(L3:L25,"&gt;0")</f>
@@ -2111,7 +2213,7 @@
     </row>
     <row r="29">
       <c r="F29" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H29" s="2">
         <v>0.0026</v>
@@ -2122,10 +2224,10 @@
     </row>
     <row r="30">
       <c r="G30" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
